--- a/data1/meaTable.xlsx
+++ b/data1/meaTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alo1\Documents\GitHub\meaR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianlo/Documents/GitHub/meaR/data1/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A07398-5346-9F4F-B4E2-435B63C99CD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385"/>
+    <workbookView xWindow="3020" yWindow="7680" windowWidth="28800" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P60" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="89">
   <si>
     <t>animalID</t>
   </si>
@@ -283,18 +284,28 @@
   </si>
   <si>
     <t>75,85,46,56,66,76,86,37,47,57,67,77,87,27,38,48,58,68,78</t>
+  </si>
+  <si>
+    <t>channels2exclude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -320,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,6 +339,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,27 +618,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,11 +660,14 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>5048</v>
       </c>
@@ -681,7 +698,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5049</v>
       </c>
@@ -711,7 +728,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5291</v>
       </c>
@@ -740,7 +757,7 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5295</v>
       </c>
@@ -763,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5703</v>
       </c>
@@ -789,7 +806,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5704</v>
       </c>
@@ -815,7 +832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5705</v>
       </c>
@@ -841,7 +858,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5707</v>
       </c>
@@ -867,7 +884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>59</v>
       </c>
@@ -890,7 +907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1">
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>6146</v>
       </c>
@@ -916,7 +933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>63</v>
       </c>
@@ -942,7 +959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>5300</v>
       </c>
@@ -968,7 +985,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>298</v>
       </c>
@@ -994,7 +1011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>5048</v>
       </c>
@@ -1020,7 +1037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5703</v>
       </c>
@@ -1046,7 +1063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5704</v>
       </c>
@@ -1072,7 +1089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>59</v>
       </c>
@@ -1098,7 +1115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1">
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6146</v>
       </c>
@@ -1121,7 +1138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>6147</v>
       </c>
@@ -1147,7 +1164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>63</v>
       </c>
@@ -1173,7 +1190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>298</v>
       </c>
@@ -1199,7 +1216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>5048</v>
       </c>
@@ -1225,7 +1242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5291</v>
       </c>
@@ -1251,7 +1268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5292</v>
       </c>
@@ -1277,7 +1294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>5293</v>
       </c>
@@ -1303,7 +1320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>5300</v>
       </c>
@@ -1329,7 +1346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>5704</v>
       </c>
@@ -1355,7 +1372,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>59</v>
       </c>
@@ -1381,7 +1398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>6146</v>
       </c>
@@ -1407,7 +1424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>6147</v>
       </c>
@@ -1433,7 +1450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>6163</v>
       </c>
@@ -1459,7 +1476,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>63</v>
       </c>
@@ -1485,7 +1502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>5290</v>
       </c>
@@ -1511,7 +1528,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>5048</v>
       </c>
@@ -1537,7 +1554,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>5293</v>
       </c>
@@ -1563,7 +1580,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>5296</v>
       </c>
@@ -1589,7 +1606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>297</v>
       </c>
@@ -1615,7 +1632,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>5296</v>
       </c>
@@ -1641,7 +1658,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>297</v>
       </c>
@@ -1667,7 +1684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>5296</v>
       </c>
@@ -1694,7 +1711,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:F41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F41">
     <sortCondition ref="B1:B41"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/data1/meaTable.xlsx
+++ b/data1/meaTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianlo/Documents/GitHub/meaR/data1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A07398-5346-9F4F-B4E2-435B63C99CD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD306B-B8E8-184F-8144-CEF9DB2C8939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="7680" windowWidth="28800" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,7 +622,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -660,11 +660,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
